--- a/2.5.1/main.xlsx
+++ b/2.5.1/main.xlsx
@@ -5,13 +5,35 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId4"/>
+    <sheet name="Export Summary" sheetId="1" r:id="rId4"/>
+    <sheet name="P(T)" sheetId="2" r:id="rId5"/>
+    <sheet name="P1" sheetId="3" r:id="rId6"/>
+    <sheet name="P2" sheetId="4" r:id="rId7"/>
+    <sheet name="P_{спирт}" sheetId="5" r:id="rId8"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+  <si>
+    <t>This document was exported from Numbers. Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
+  </si>
+  <si>
+    <t>Numbers Sheet Name</t>
+  </si>
+  <si>
+    <t>Numbers Table Name</t>
+  </si>
+  <si>
+    <t>Excel Worksheet Name</t>
+  </si>
+  <si>
+    <t>P(T)</t>
+  </si>
+  <si>
+    <t>Table 1</t>
+  </si>
   <si>
     <t>$T$, $^\circ C$</t>
   </si>
@@ -29,6 +51,93 @@
   </si>
   <si>
     <t>$N_5$</t>
+  </si>
+  <si>
+    <t>21.5</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>202.5</t>
+  </si>
+  <si>
+    <t>25.1</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>203.5</t>
+  </si>
+  <si>
+    <t>30.3</t>
+  </si>
+  <si>
+    <t>35.2</t>
+  </si>
+  <si>
+    <t>200.5</t>
+  </si>
+  <si>
+    <t>40.2</t>
+  </si>
+  <si>
+    <t>198.5</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>199.5</t>
+  </si>
+  <si>
+    <t>45.2</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>50.2</t>
+  </si>
+  <si>
+    <t>196.5</t>
+  </si>
+  <si>
+    <t>197.5</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>55.2</t>
+  </si>
+  <si>
+    <t>194.5</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>60.1</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>192.5</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P_{спирт}</t>
   </si>
 </sst>
 </file>
@@ -38,11 +147,16 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="5">
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
       <color indexed="8"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="12"/>
@@ -50,17 +164,35 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <u val="single"/>
+      <sz val="12"/>
+      <color indexed="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <sz val="15"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor auto="1"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -73,16 +205,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="12"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="12"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="12"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
@@ -92,9 +224,24 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
@@ -102,7 +249,19 @@
     <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -122,6 +281,9 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ff5e88b1"/>
+      <rgbColor rgb="ffeef3f4"/>
+      <rgbColor rgb="ff0000ff"/>
       <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
@@ -129,9 +291,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office Theme">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
@@ -145,22 +307,22 @@
         <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="0000FF"/>
@@ -169,7 +331,7 @@
         <a:srgbClr val="FF00FF"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office Theme">
       <a:majorFont>
         <a:latin typeface="Helvetica Neue"/>
         <a:ea typeface="Helvetica Neue"/>
@@ -181,7 +343,7 @@
         <a:cs typeface="Helvetica Neue"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Sheets">
+    <a:fmtScheme name="Office Theme">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -254,13 +416,31 @@
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -321,17 +501,23 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -358,10 +544,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Arial"/>
-            <a:ea typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-            <a:sym typeface="Arial"/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -600,14 +786,20 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
         <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
@@ -882,7 +1074,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -909,10 +1101,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Arial"/>
-            <a:ea typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-            <a:sym typeface="Arial"/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1154,6 +1346,112 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="2" max="4" width="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" ht="0.05" customHeight="1">
+      <c r="B3" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+    </row>
+    <row r="7">
+      <c r="B7" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s" s="3">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="4"/>
+      <c r="C10" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="4"/>
+      <c r="C12" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s" s="3">
+        <v>39</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="4"/>
+      <c r="C14" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s" s="5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="s" s="3">
+        <v>40</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="4"/>
+      <c r="C16" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s" s="5">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D10" location="'P(T)'!R1C1" tooltip="" display="P(T)"/>
+    <hyperlink ref="D12" location="'P1'!R1C1" tooltip="" display="P1"/>
+    <hyperlink ref="D14" location="'P2'!R1C1" tooltip="" display="P2"/>
+    <hyperlink ref="D16" location="'P_{спирт}'!R1C1" tooltip="" display="P_{спирт}"/>
+  </hyperlinks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1161,211 +1459,583 @@
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="6" width="12.6719" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="12.6719" style="1" customWidth="1"/>
+    <col min="1" max="6" width="8" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="8" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.65" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s" s="2">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" ht="13.65" customHeight="1">
-      <c r="A2" s="3">
-        <v>21.5</v>
-      </c>
-      <c r="B2" s="3">
-        <v>201</v>
-      </c>
-      <c r="C2" s="3">
-        <v>202</v>
-      </c>
-      <c r="D2" s="3">
-        <v>202</v>
-      </c>
-      <c r="E2" s="3">
-        <v>202</v>
-      </c>
-      <c r="F2" s="3">
-        <v>202.5</v>
-      </c>
-    </row>
-    <row r="3" ht="13.65" customHeight="1">
-      <c r="A3" s="3">
-        <v>25.1</v>
-      </c>
-      <c r="B3" s="3">
-        <v>204</v>
-      </c>
-      <c r="C3" s="3">
-        <v>204</v>
-      </c>
-      <c r="D3" s="3">
-        <v>204</v>
-      </c>
-      <c r="E3" s="3">
-        <v>203.5</v>
-      </c>
-      <c r="F3" s="3">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="4" ht="13.65" customHeight="1">
-      <c r="A4" s="3">
-        <v>30.3</v>
-      </c>
-      <c r="B4" s="3">
-        <v>202.5</v>
-      </c>
-      <c r="C4" s="3">
-        <v>202</v>
-      </c>
-      <c r="D4" s="3">
-        <v>202.5</v>
-      </c>
-      <c r="E4" s="3">
-        <v>202.5</v>
-      </c>
-      <c r="F4" s="3">
-        <v>202.5</v>
-      </c>
-    </row>
-    <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" s="3">
-        <v>35.2</v>
-      </c>
-      <c r="B5" s="3">
-        <v>200.5</v>
-      </c>
-      <c r="C5" s="3">
-        <v>201</v>
-      </c>
-      <c r="D5" s="3">
-        <v>200.5</v>
-      </c>
-      <c r="E5" s="3">
-        <v>200.5</v>
-      </c>
-      <c r="F5" s="3">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" s="3">
-        <v>40.2</v>
-      </c>
-      <c r="B6" s="3">
-        <v>198.5</v>
-      </c>
-      <c r="C6" s="3">
-        <v>199</v>
-      </c>
-      <c r="D6" s="3">
-        <v>199</v>
-      </c>
-      <c r="E6" s="3">
-        <v>199</v>
-      </c>
-      <c r="F6" s="3">
-        <v>199.5</v>
-      </c>
-    </row>
-    <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" s="3">
-        <v>45.2</v>
-      </c>
-      <c r="B7" s="3">
-        <v>198</v>
-      </c>
-      <c r="C7" s="3">
-        <v>198</v>
-      </c>
-      <c r="D7" s="3">
-        <v>198</v>
-      </c>
-      <c r="E7" s="3">
-        <v>198</v>
-      </c>
-      <c r="F7" s="3">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" s="3">
-        <v>50.2</v>
-      </c>
-      <c r="B8" s="3">
-        <v>196.5</v>
-      </c>
-      <c r="C8" s="3">
-        <v>197.5</v>
-      </c>
-      <c r="D8" s="3">
-        <v>196.5</v>
-      </c>
-      <c r="E8" s="3">
-        <v>197</v>
-      </c>
-      <c r="F8" s="3">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" s="3">
-        <v>55.2</v>
-      </c>
-      <c r="B9" s="3">
-        <v>194.5</v>
-      </c>
-      <c r="C9" s="3">
-        <v>195</v>
-      </c>
-      <c r="D9" s="3">
-        <v>195</v>
-      </c>
-      <c r="E9" s="3">
-        <v>195</v>
-      </c>
-      <c r="F9" s="3">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" s="3">
-        <v>60.1</v>
-      </c>
-      <c r="B10" s="3">
-        <v>193</v>
-      </c>
-      <c r="C10" s="3">
-        <v>193</v>
-      </c>
-      <c r="D10" s="3">
-        <v>192.5</v>
-      </c>
-      <c r="E10" s="3">
-        <v>193</v>
-      </c>
-      <c r="F10" s="3">
-        <v>193</v>
-      </c>
+    <row r="1" ht="15.35" customHeight="1">
+      <c r="A1" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s" s="7">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" ht="15.35" customHeight="1">
+      <c r="A2" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s" s="7">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s" s="7">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s" s="7">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" ht="15.35" customHeight="1">
+      <c r="A3" t="s" s="7">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s" s="7">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s" s="7">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s" s="7">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s" s="7">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" ht="15.35" customHeight="1">
+      <c r="A4" t="s" s="7">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s" s="7">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s" s="7">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s" s="7">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s" s="7">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="15.35" customHeight="1">
+      <c r="A5" t="s" s="7">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s" s="7">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s" s="7">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s" s="7">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" ht="15.35" customHeight="1">
+      <c r="A6" t="s" s="7">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s" s="7">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s" s="7">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s" s="7">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s" s="7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" ht="15.35" customHeight="1">
+      <c r="A7" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" ht="15.35" customHeight="1">
+      <c r="A8" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" ht="15.35" customHeight="1">
+      <c r="A9" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s" s="7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" ht="15.35" customHeight="1">
+      <c r="A10" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="F10" t="s" s="7">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="6" width="8" style="8" customWidth="1"/>
+    <col min="7" max="16384" width="8" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.35" customHeight="1">
+      <c r="A1" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s" s="7">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" ht="15.35" customHeight="1">
+      <c r="A2" s="10">
+        <v>118</v>
+      </c>
+      <c r="B2" s="10">
+        <v>118</v>
+      </c>
+      <c r="C2" s="10">
+        <v>118</v>
+      </c>
+      <c r="D2" s="10">
+        <v>119</v>
+      </c>
+      <c r="E2" s="10">
+        <v>119</v>
+      </c>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" ht="15.35" customHeight="1">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" ht="15.35" customHeight="1">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" ht="15.35" customHeight="1">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" ht="15.35" customHeight="1">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" ht="15.35" customHeight="1">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" ht="15.35" customHeight="1">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" ht="15.35" customHeight="1">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" ht="15.35" customHeight="1">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="6" width="8" style="11" customWidth="1"/>
+    <col min="7" max="16384" width="8" style="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.35" customHeight="1">
+      <c r="A1" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s" s="7">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" ht="15.35" customHeight="1">
+      <c r="A2" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s" s="7">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s" s="7">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s" s="7">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s" s="7">
+        <v>15</v>
+      </c>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" ht="15.35" customHeight="1">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" ht="15.35" customHeight="1">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" ht="15.35" customHeight="1">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" ht="15.35" customHeight="1">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" ht="15.35" customHeight="1">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" ht="15.35" customHeight="1">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" ht="15.35" customHeight="1">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" ht="15.35" customHeight="1">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="6" width="8" style="12" customWidth="1"/>
+    <col min="7" max="16384" width="8" style="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.35" customHeight="1">
+      <c r="A1" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s" s="7">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" ht="15.35" customHeight="1">
+      <c r="A2" s="10">
+        <v>43</v>
+      </c>
+      <c r="B2" s="10">
+        <v>43</v>
+      </c>
+      <c r="C2" s="10">
+        <v>44</v>
+      </c>
+      <c r="D2" s="10">
+        <v>43</v>
+      </c>
+      <c r="E2" s="10">
+        <v>43</v>
+      </c>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" ht="15.35" customHeight="1">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" ht="15.35" customHeight="1">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" ht="15.35" customHeight="1">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" ht="15.35" customHeight="1">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" ht="15.35" customHeight="1">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" ht="15.35" customHeight="1">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" ht="15.35" customHeight="1">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" ht="15.35" customHeight="1">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
